--- a/Lab3/WynikiEntropia.xlsx
+++ b/Lab3/WynikiEntropia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>norm_wiki_en</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>NIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 ,2 ,5 </t>
+  </si>
+  <si>
+    <t>Nie pasuje</t>
   </si>
 </sst>
 </file>
@@ -448,22 +454,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="131126016"/>
-        <c:axId val="144751616"/>
+        <c:axId val="142849152"/>
+        <c:axId val="142850688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131126016"/>
+        <c:axId val="142849152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144751616"/>
+        <c:crossAx val="142850688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144751616"/>
+        <c:axId val="142850688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -471,7 +477,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131126016"/>
+        <c:crossAx val="142849152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -484,7 +490,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -753,22 +759,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="151278336"/>
-        <c:axId val="151223296"/>
+        <c:axId val="143098240"/>
+        <c:axId val="143099776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151278336"/>
+        <c:axId val="143098240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151223296"/>
+        <c:crossAx val="143099776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151223296"/>
+        <c:axId val="143099776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +782,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151278336"/>
+        <c:crossAx val="143098240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -789,7 +795,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -827,10 +833,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.6782977456405127E-2"/>
-          <c:y val="7.4487774106030136E-2"/>
+          <c:x val="5.6782977456405141E-2"/>
+          <c:y val="7.448777410603015E-2"/>
           <c:w val="0.69517825896762908"/>
-          <c:h val="0.89728280447476383"/>
+          <c:h val="0.89728280447476372"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1009,22 +1015,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="131395968"/>
-        <c:axId val="190139392"/>
+        <c:axId val="142296576"/>
+        <c:axId val="142298112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131395968"/>
+        <c:axId val="142296576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190139392"/>
+        <c:crossAx val="142298112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190139392"/>
+        <c:axId val="142298112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1038,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131395968"/>
+        <c:crossAx val="142296576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1045,7 +1051,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1256,22 +1262,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="193123072"/>
-        <c:axId val="193088512"/>
+        <c:axId val="142326400"/>
+        <c:axId val="151523712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193123072"/>
+        <c:axId val="142326400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193088512"/>
+        <c:crossAx val="151523712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193088512"/>
+        <c:axId val="151523712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1285,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193123072"/>
+        <c:crossAx val="142326400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1292,7 +1298,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1708,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1728,7 +1734,7 @@
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1741,7 +1747,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1770,7 +1776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1799,7 +1805,7 @@
         <v>11.731012903460799</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1828,7 +1834,7 @@
         <v>5.39869635466464</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1857,7 +1863,7 @@
         <v>1.60861636474136</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1885,8 +1891,11 @@
       <c r="I6" s="2">
         <v>0.409604125777565</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="AA6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1896,8 +1905,11 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="AA7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1910,7 +1922,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1939,7 +1951,7 @@
         <v>4.0401117695200703</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1968,7 +1980,7 @@
         <v>3.29956259439922</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:27">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1997,7 +2009,7 @@
         <v>2.8443686272555899</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:27">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2026,7 +2038,7 @@
         <v>2.3743089856577599</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:27">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -2049,7 +2061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:27">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2060,7 +2072,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:27">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -2083,7 +2095,7 @@
         <v>16.509482325862098</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:27">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -2106,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:27">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -2129,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:27">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -2152,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:27">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2161,7 +2173,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:27">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -2172,7 +2184,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:27">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
@@ -2195,7 +2207,7 @@
         <v>4.4416871708036796</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:27">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
@@ -2217,8 +2229,11 @@
       <c r="G24" s="3">
         <v>3.5230970549875398</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="AA24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -2240,8 +2255,11 @@
       <c r="G25" s="3">
         <v>3.2506198578797698</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="AA25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
@@ -2264,7 +2282,7 @@
         <v>2.83427069751892</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:27">
       <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
